--- a/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/ed-EDA-2018-1-members-and-hierarchies.xlsx
+++ b/yti-taxgen-test-commons/src/main/resources/test_fixtures/rds_source_config/dm_integration_fixture/ed-EDA-2018-1-members-and-hierarchies.xlsx
@@ -211,7 +211,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>f0aefb09-b6ea-4724-8456-a8fed97f533d</t>
+          <t>f01bc58e-d294-4d60-a62c-ef0670327a6c</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -280,7 +280,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="36.300000000000004"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="14.85"/>
@@ -347,7 +347,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>57cd94c7-1000-4b34-984d-41d35d11c930</t>
+          <t>ef09b5fe-bacb-47c0-95bd-430a8e099807</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -383,7 +383,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>135f5eac-ecb7-47ed-a0ed-4eb9619c0d37</t>
+          <t>a91bbd3c-4eed-449f-a490-6ecd56e414e0</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -419,7 +419,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>5d6a3089-6980-410b-bbda-01dcedb2a8f1</t>
+          <t>37d60266-6024-40fa-b243-f7e421575ff4</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -455,7 +455,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>86a121e5-de3d-48a8-b949-a29e14a1ce7b</t>
+          <t>ccb929a9-f1d8-43a9-a102-45e5e1fbdb10</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -491,7 +491,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>3829fd44-3e28-45b9-a6cf-cc0a7dbf6431</t>
+          <t>4ffad908-d016-4218-bf39-17889e72b2db</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -527,7 +527,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>c287ea18-7e71-4db4-b177-f1e0737654e0</t>
+          <t>39145216-77c6-4793-97dc-5a85c96ae4b6</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>012c83ba-c307-40ed-9413-d7801d6a8548</t>
+          <t>226a3cd5-2769-4893-a741-95f288aac396</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -599,7 +599,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>24185b0a-fc3e-468f-9876-0e720a2d1af5</t>
+          <t>b2e795f8-a69b-4105-b453-83fd2ebf47ab</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -635,7 +635,7 @@
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>c4971685-6c55-4d6c-a69c-109eab9e5102</t>
+          <t>90a867d5-eb5e-4b2e-9469-f47005671446</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>062e6078-7a8a-44b0-b498-d84abf3f6d30</t>
+          <t>836d14a1-e2af-47b8-8bc3-c6bac35ab91d</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>03d5b519-4008-4948-a518-83d82d74af19</t>
+          <t>41faeb26-20cd-41aa-8cc5-269a7e537156</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -743,7 +743,7 @@
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>aeea3bda-4c87-4ad9-92b0-aeedc173ad34</t>
+          <t>b4a8397f-3774-4b50-8ae9-fe8482ae2a63</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -779,7 +779,7 @@
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>10a20a4e-0c7c-4510-bc88-38566809f521</t>
+          <t>247bd124-b7f7-4676-ae07-b3d3220fb3e5</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -832,7 +832,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="35.2"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="18.15"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="24.75"/>
@@ -893,7 +893,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>4736f17b-9c2e-4796-8310-9573ef1337d6</t>
+          <t>149c6a99-b687-492b-a35b-2548ba6c8e65</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -932,7 +932,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>0e33b3fd-601d-4773-b660-c743127b188c</t>
+          <t>15db7eaf-9d12-4ab6-bb12-11c87f30efd9</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -971,7 +971,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>c266dd5b-a76b-4ad3-b735-c17651affc60</t>
+          <t>76b41e36-ba71-43c2-84c6-898dacdd843a</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1027,10 +1027,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="33.0"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="34.1"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.549999999999999"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="19.8"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="16.5"/>
@@ -1076,7 +1076,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>6eb2ab10-fe81-417d-a418-816640af4826</t>
+          <t>6adb97f2-311a-4a78-b2c8-2f2d8bd231bf</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1087,7 +1087,7 @@
       <c r="C2" s="0"/>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>EDA member 7</t>
+          <t>EDA hierarchy node 7</t>
         </is>
       </c>
       <c r="E2" s="0"/>
@@ -1097,7 +1097,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>b2f8d3dc-3e18-4e4c-8fe0-7d73c51b237c</t>
+          <t>3e8b4059-fdb1-4363-a6e6-5736ae2d53a8</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1108,7 +1108,7 @@
       <c r="C3" s="0"/>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>EDA member 4</t>
+          <t>EDA hierarchy node 4</t>
         </is>
       </c>
       <c r="E3" s="0"/>
@@ -1118,7 +1118,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>d547f3e7-114f-4589-a31f-a93f849c32e1</t>
+          <t>9543654f-c9d0-4a93-8363-8f7a9bfe5307</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>EDA-x9</t>
+          <t>code:EDA-x9</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>EDA member 5</t>
+          <t>EDA hierarchy node 5</t>
         </is>
       </c>
       <c r="E4" s="0"/>
@@ -1143,7 +1143,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>9d129d70-2ff6-4d81-81f6-62f0448e01a0</t>
+          <t>fc457230-0f51-4c8a-b5bc-3b1fdc565d33</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1154,7 +1154,7 @@
       <c r="C5" s="0"/>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>EDA member 6</t>
+          <t>EDA hierarchy node 6</t>
         </is>
       </c>
       <c r="E5" s="0"/>
@@ -1164,7 +1164,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>f0c6b254-8216-4a61-a169-99b8724f75d1</t>
+          <t>a6b92169-eada-474b-ad2d-482b1c205e9c</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1175,7 +1175,7 @@
       <c r="C6" s="0"/>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>EDA member 2</t>
+          <t>EDA hierarchy node 2</t>
         </is>
       </c>
       <c r="E6" s="0"/>
@@ -1185,7 +1185,7 @@
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>b0752008-a20e-40b4-97aa-fa4fb6acb061</t>
+          <t>378d13f9-83c4-4e8d-aa58-09a772e3c8f4</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>EDA-x2</t>
+          <t>code:EDA-x2</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>EDA member 1</t>
+          <t>EDA hierarchy node 1</t>
         </is>
       </c>
       <c r="E7" s="0"/>
@@ -1210,7 +1210,7 @@
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>e4118261-9710-4307-abd0-df94af51238a</t>
+          <t>9d318799-0ebf-4278-a415-d1fb7c184569</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>EDA-x2</t>
+          <t>code:EDA-x2</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>EDA member 3</t>
+          <t>EDA hierarchy node 3</t>
         </is>
       </c>
       <c r="E8" s="0"/>
@@ -1235,7 +1235,7 @@
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>22ad7105-a8bf-4a1c-8994-6621aee88380</t>
+          <t>5d73c619-6ad3-444b-9e76-31cda0fe32dd</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -1246,7 +1246,7 @@
       <c r="C9" s="0"/>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>EDA member 8</t>
+          <t>EDA hierarchy node 8</t>
         </is>
       </c>
       <c r="E9" s="0"/>
@@ -1278,7 +1278,7 @@
     <col min="3" max="3" bestFit="1" customWidth="1" width="14.85"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="26.4"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="33.0"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="19.8"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="24.200000000000003"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="8" max="8" bestFit="1" customWidth="1" width="19.799999999999997"/>
     <col min="9" max="9" bestFit="1" customWidth="1" width="16.5"/>
@@ -1334,7 +1334,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>2b9004a0-9ffb-44bd-a67f-ee5f70c56778</t>
+          <t>dc1465f6-9a1e-4677-a0a7-a2e1d2b151ee</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>EDA member (=, 1)</t>
+          <t>EDA hierarchy node (=, 1)</t>
         </is>
       </c>
       <c r="G2" s="0"/>
@@ -1365,7 +1365,7 @@
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>28500c13-e8c7-459e-93ba-6f9c12fee233</t>
+          <t>7feebc59-1457-43c3-9808-fef21f691ae9</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>EDA member (&gt;, 2)</t>
+          <t>EDA hierarchy node (&gt;, 2)</t>
         </is>
       </c>
       <c r="G3" s="0"/>
@@ -1392,7 +1392,7 @@
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>daaaf531-0b66-4a37-b7fd-56e21dc11de8</t>
+          <t>31fc107f-0faa-4bd4-a697-1150a8b580d9</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>EDA member (&lt;, 0)</t>
+          <t>EDA hierarchy node (&lt;, 0)</t>
         </is>
       </c>
       <c r="G4" s="0"/>
@@ -1419,7 +1419,7 @@
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>0550924f-ab37-4625-91a9-3df81d137b59</t>
+          <t>640aa29f-a992-454e-8b5a-c02b1c88b578</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>EDA member (&gt;=, -1)</t>
+          <t>EDA hierarchy node (&gt;=, -1)</t>
         </is>
       </c>
       <c r="G5" s="0"/>
@@ -1450,7 +1450,7 @@
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>f14ad14f-fa00-48d8-ba04-36617548d1c0</t>
+          <t>48637fb5-2055-4d1d-9963-d49f84c5f897</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>EDA member (&lt;=, -2)</t>
+          <t>EDA hierarchy node (&lt;=, -2)</t>
         </is>
       </c>
       <c r="G6" s="0"/>
